--- a/excel/Muestra prototipo BD_Rv.09.11.21.xlsx
+++ b/excel/Muestra prototipo BD_Rv.09.11.21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28B7779-68A8-4FFF-BC1C-6120D8FF0D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C50E194-9E7A-4D46-85DC-BD372686D862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -231,9 +231,6 @@
     <t>Malt Extract Agar (MEA: Malt extract 20g; peptone 1.0 g; Glicose 20g; Agar 20g; distilled water 1L).</t>
   </si>
   <si>
-    <t>Oxygen tolerance</t>
-  </si>
-  <si>
     <t>Aerobe</t>
   </si>
   <si>
@@ -970,6 +967,9 @@
   </si>
   <si>
     <t>Samples stock</t>
+  </si>
+  <si>
+    <t>Respiration</t>
   </si>
 </sst>
 </file>
@@ -1411,7 +1411,7 @@
   <dimension ref="A1:W201"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1471,10 +1471,10 @@
         <v>5</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>67</v>
+        <v>297</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>19</v>
@@ -1501,7 +1501,7 @@
         <v>36</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
@@ -1512,7 +1512,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>23</v>
@@ -1536,10 +1536,10 @@
         <v>25</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N2" s="15" t="s">
         <v>17</v>
@@ -1601,10 +1601,10 @@
         <v>25</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N3" s="15" t="s">
         <v>18</v>
@@ -1642,7 +1642,7 @@
         <v>26</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>23</v>
@@ -1666,10 +1666,10 @@
         <v>25</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N4" s="15" t="s">
         <v>17</v>
@@ -1731,10 +1731,10 @@
         <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N5" s="15" t="s">
         <v>18</v>
@@ -1772,7 +1772,7 @@
         <v>28</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>23</v>
@@ -1796,10 +1796,10 @@
         <v>25</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N6" s="15" t="s">
         <v>17</v>
@@ -1837,7 +1837,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>23</v>
@@ -1861,10 +1861,10 @@
         <v>25</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N7" s="15" t="s">
         <v>18</v>
@@ -1902,7 +1902,7 @@
         <v>30</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>23</v>
@@ -1926,10 +1926,10 @@
         <v>25</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N8" s="15" t="s">
         <v>17</v>
@@ -1991,10 +1991,10 @@
         <v>25</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N9" s="15" t="s">
         <v>18</v>
@@ -2056,10 +2056,10 @@
         <v>25</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N10" s="15" t="s">
         <v>18</v>
@@ -2121,10 +2121,10 @@
         <v>25</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N11" s="15" t="s">
         <v>17</v>
@@ -2159,10 +2159,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>23</v>
@@ -2186,19 +2186,19 @@
         <v>25</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N12" s="15" t="s">
         <v>18</v>
       </c>
       <c r="O12" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P12" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q12" s="18" t="s">
         <v>61</v>
@@ -2224,10 +2224,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>23</v>
@@ -2251,19 +2251,19 @@
         <v>25</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N13" s="15" t="s">
         <v>18</v>
       </c>
       <c r="O13" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P13" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q13" s="18" t="s">
         <v>61</v>
@@ -2289,10 +2289,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>23</v>
@@ -2316,19 +2316,19 @@
         <v>25</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N14" s="15" t="s">
         <v>18</v>
       </c>
       <c r="O14" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P14" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q14" s="18" t="s">
         <v>61</v>
@@ -2354,10 +2354,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>23</v>
@@ -2381,19 +2381,19 @@
         <v>25</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N15" s="15" t="s">
         <v>18</v>
       </c>
       <c r="O15" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P15" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q15" s="18" t="s">
         <v>61</v>
@@ -2419,10 +2419,10 @@
         <v>11</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>23</v>
@@ -2434,7 +2434,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I16" s="4">
         <v>120</v>
@@ -2446,19 +2446,19 @@
         <v>25</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N16" s="15" t="s">
         <v>18</v>
       </c>
       <c r="O16" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P16" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q16" s="18" t="s">
         <v>61</v>
@@ -2484,10 +2484,10 @@
         <v>11</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>23</v>
@@ -2511,19 +2511,19 @@
         <v>25</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N17" s="15" t="s">
         <v>17</v>
       </c>
       <c r="O17" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P17" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q17" s="18" t="s">
         <v>61</v>
@@ -2549,10 +2549,10 @@
         <v>11</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>23</v>
@@ -2576,19 +2576,19 @@
         <v>25</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N18" s="15" t="s">
         <v>18</v>
       </c>
       <c r="O18" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P18" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q18" s="18" t="s">
         <v>61</v>
@@ -2614,10 +2614,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>23</v>
@@ -2629,7 +2629,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I19" s="4">
         <v>120</v>
@@ -2641,19 +2641,19 @@
         <v>25</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N19" s="15" t="s">
         <v>18</v>
       </c>
       <c r="O19" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P19" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q19" s="18" t="s">
         <v>61</v>
@@ -2679,10 +2679,10 @@
         <v>11</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>23</v>
@@ -2706,19 +2706,19 @@
         <v>25</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N20" s="15" t="s">
         <v>18</v>
       </c>
       <c r="O20" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P20" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q20" s="18" t="s">
         <v>61</v>
@@ -2744,10 +2744,10 @@
         <v>11</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>23</v>
@@ -2771,19 +2771,19 @@
         <v>25</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N21" s="15" t="s">
         <v>18</v>
       </c>
       <c r="O21" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P21" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q21" s="18" t="s">
         <v>61</v>
@@ -2809,10 +2809,10 @@
         <v>11</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>23</v>
@@ -2824,7 +2824,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I22" s="4">
         <v>120</v>
@@ -2836,19 +2836,19 @@
         <v>25</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N22" s="15" t="s">
         <v>18</v>
       </c>
       <c r="O22" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P22" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q22" s="18" t="s">
         <v>61</v>
@@ -2874,10 +2874,10 @@
         <v>11</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>23</v>
@@ -2889,7 +2889,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I23" s="4">
         <v>120</v>
@@ -2901,19 +2901,19 @@
         <v>25</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N23" s="15" t="s">
         <v>18</v>
       </c>
       <c r="O23" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P23" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q23" s="18" t="s">
         <v>61</v>
@@ -2939,10 +2939,10 @@
         <v>11</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>23</v>
@@ -2954,7 +2954,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I24" s="4">
         <v>120</v>
@@ -2966,19 +2966,19 @@
         <v>25</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N24" s="15" t="s">
         <v>18</v>
       </c>
       <c r="O24" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P24" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q24" s="18" t="s">
         <v>61</v>
@@ -3004,10 +3004,10 @@
         <v>11</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>23</v>
@@ -3019,7 +3019,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I25" s="4">
         <v>120</v>
@@ -3031,19 +3031,19 @@
         <v>25</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N25" s="15" t="s">
         <v>18</v>
       </c>
       <c r="O25" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P25" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q25" s="18" t="s">
         <v>61</v>
@@ -3069,10 +3069,10 @@
         <v>11</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>23</v>
@@ -3096,19 +3096,19 @@
         <v>25</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N26" s="15" t="s">
         <v>18</v>
       </c>
       <c r="O26" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P26" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q26" s="18" t="s">
         <v>61</v>
@@ -3134,7 +3134,7 @@
         <v>11</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>15</v>
@@ -3161,19 +3161,19 @@
         <v>25</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N27" s="15" t="s">
         <v>18</v>
       </c>
       <c r="O27" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P27" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q27" s="18" t="s">
         <v>61</v>
@@ -3199,10 +3199,10 @@
         <v>11</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>23</v>
@@ -3226,19 +3226,19 @@
         <v>25</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N28" s="15" t="s">
         <v>18</v>
       </c>
       <c r="O28" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P28" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q28" s="18" t="s">
         <v>61</v>
@@ -3264,10 +3264,10 @@
         <v>11</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>23</v>
@@ -3279,7 +3279,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I29" s="4">
         <v>120</v>
@@ -3291,19 +3291,19 @@
         <v>25</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N29" s="15" t="s">
         <v>18</v>
       </c>
       <c r="O29" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P29" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q29" s="18" t="s">
         <v>61</v>
@@ -3329,10 +3329,10 @@
         <v>11</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>23</v>
@@ -3344,7 +3344,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I30" s="4">
         <v>120</v>
@@ -3356,19 +3356,19 @@
         <v>25</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N30" s="15" t="s">
         <v>18</v>
       </c>
       <c r="O30" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P30" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q30" s="18" t="s">
         <v>61</v>
@@ -3394,10 +3394,10 @@
         <v>11</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>23</v>
@@ -3421,19 +3421,19 @@
         <v>25</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N31" s="15" t="s">
         <v>18</v>
       </c>
       <c r="O31" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P31" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q31" s="18" t="s">
         <v>61</v>
@@ -3459,10 +3459,10 @@
         <v>11</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>23</v>
@@ -3486,19 +3486,19 @@
         <v>25</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N32" s="15" t="s">
         <v>18</v>
       </c>
       <c r="O32" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P32" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q32" s="18" t="s">
         <v>61</v>
@@ -3524,7 +3524,7 @@
         <v>11</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>15</v>
@@ -3551,19 +3551,19 @@
         <v>25</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N33" s="15" t="s">
         <v>18</v>
       </c>
       <c r="O33" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P33" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q33" s="18" t="s">
         <v>61</v>
@@ -3589,10 +3589,10 @@
         <v>11</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>23</v>
@@ -3604,7 +3604,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I34" s="4">
         <v>120</v>
@@ -3616,19 +3616,19 @@
         <v>25</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N34" s="15" t="s">
         <v>18</v>
       </c>
       <c r="O34" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P34" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q34" s="18" t="s">
         <v>61</v>
@@ -3654,10 +3654,10 @@
         <v>11</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>23</v>
@@ -3669,7 +3669,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I35" s="4">
         <v>120</v>
@@ -3681,19 +3681,19 @@
         <v>25</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N35" s="15" t="s">
         <v>18</v>
       </c>
       <c r="O35" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P35" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q35" s="18" t="s">
         <v>61</v>
@@ -3719,10 +3719,10 @@
         <v>11</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>23</v>
@@ -3746,19 +3746,19 @@
         <v>25</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M36" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N36" s="15" t="s">
         <v>18</v>
       </c>
       <c r="O36" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P36" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q36" s="18" t="s">
         <v>61</v>
@@ -3784,10 +3784,10 @@
         <v>11</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>23</v>
@@ -3811,19 +3811,19 @@
         <v>25</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N37" s="15" t="s">
         <v>18</v>
       </c>
       <c r="O37" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P37" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q37" s="18" t="s">
         <v>61</v>
@@ -3849,10 +3849,10 @@
         <v>11</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>23</v>
@@ -3876,19 +3876,19 @@
         <v>25</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N38" s="15" t="s">
         <v>18</v>
       </c>
       <c r="O38" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P38" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q38" s="18" t="s">
         <v>61</v>
@@ -3914,10 +3914,10 @@
         <v>11</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>23</v>
@@ -3929,7 +3929,7 @@
         <v>12</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I39" s="4">
         <v>120</v>
@@ -3941,19 +3941,19 @@
         <v>25</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N39" s="15" t="s">
         <v>18</v>
       </c>
       <c r="O39" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P39" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q39" s="18" t="s">
         <v>61</v>
@@ -3979,7 +3979,7 @@
         <v>11</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>15</v>
@@ -4006,19 +4006,19 @@
         <v>25</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M40" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N40" s="15" t="s">
         <v>18</v>
       </c>
       <c r="O40" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P40" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q40" s="18" t="s">
         <v>61</v>
@@ -4044,10 +4044,10 @@
         <v>11</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>101</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>23</v>
@@ -4071,19 +4071,19 @@
         <v>25</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N41" s="15" t="s">
         <v>18</v>
       </c>
       <c r="O41" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P41" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q41" s="18" t="s">
         <v>61</v>
@@ -4109,22 +4109,22 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
+        <v>171</v>
+      </c>
+      <c r="C42" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="D42" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="D42" s="26" t="s">
-        <v>174</v>
-      </c>
       <c r="E42" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F42" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G42" s="10" t="s">
         <v>265</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>266</v>
       </c>
       <c r="I42" s="4">
         <v>120</v>
@@ -4136,10 +4136,10 @@
         <v>25</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M42" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N42" s="18" t="s">
         <v>61</v>
@@ -4157,10 +4157,10 @@
         <v>62</v>
       </c>
       <c r="S42" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="T42" s="19" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="U42" s="16" t="s">
         <v>60</v>
@@ -4174,22 +4174,22 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
+        <v>174</v>
+      </c>
+      <c r="C43" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="D43" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="D43" s="26" t="s">
-        <v>177</v>
-      </c>
       <c r="E43" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I43" s="4">
         <v>120</v>
@@ -4201,10 +4201,10 @@
         <v>25</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M43" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N43" s="18" t="s">
         <v>61</v>
@@ -4222,10 +4222,10 @@
         <v>62</v>
       </c>
       <c r="S43" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="T43" s="19" t="s">
         <v>269</v>
-      </c>
-      <c r="T43" s="19" t="s">
-        <v>270</v>
       </c>
       <c r="U43" s="16" t="s">
         <v>60</v>
@@ -4239,22 +4239,22 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
+        <v>177</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="D44" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="C44" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="D44" s="26" t="s">
-        <v>179</v>
-      </c>
       <c r="E44" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F44" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G44" s="10" t="s">
         <v>265</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>266</v>
       </c>
       <c r="I44" s="4">
         <v>120</v>
@@ -4266,10 +4266,10 @@
         <v>25</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M44" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N44" s="18" t="s">
         <v>61</v>
@@ -4287,10 +4287,10 @@
         <v>62</v>
       </c>
       <c r="S44" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="T44" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="U44" s="16" t="s">
         <v>60</v>
@@ -4304,22 +4304,22 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
+        <v>179</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="D45" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="C45" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="D45" s="26" t="s">
-        <v>181</v>
-      </c>
       <c r="E45" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F45" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G45" s="10" t="s">
         <v>265</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>266</v>
       </c>
       <c r="I45" s="4">
         <v>120</v>
@@ -4331,10 +4331,10 @@
         <v>25</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M45" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N45" s="18" t="s">
         <v>61</v>
@@ -4352,10 +4352,10 @@
         <v>62</v>
       </c>
       <c r="S45" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="T45" s="19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="U45" s="16" t="s">
         <v>60</v>
@@ -4369,22 +4369,22 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
+        <v>181</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="D46" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="C46" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="D46" s="26" t="s">
-        <v>183</v>
-      </c>
       <c r="E46" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F46" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G46" s="10" t="s">
         <v>265</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>266</v>
       </c>
       <c r="I46" s="4">
         <v>120</v>
@@ -4396,10 +4396,10 @@
         <v>25</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M46" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N46" s="18" t="s">
         <v>61</v>
@@ -4417,10 +4417,10 @@
         <v>62</v>
       </c>
       <c r="S46" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="T46" s="19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="U46" s="16" t="s">
         <v>60</v>
@@ -4434,22 +4434,22 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
+        <v>183</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="D47" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="C47" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="D47" s="26" t="s">
-        <v>185</v>
-      </c>
       <c r="E47" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F47" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G47" s="10" t="s">
         <v>265</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>266</v>
       </c>
       <c r="I47" s="4">
         <v>120</v>
@@ -4461,10 +4461,10 @@
         <v>25</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M47" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N47" s="18" t="s">
         <v>61</v>
@@ -4482,10 +4482,10 @@
         <v>62</v>
       </c>
       <c r="S47" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="T47" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="U47" s="16" t="s">
         <v>60</v>
@@ -4499,22 +4499,22 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
+        <v>185</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="D48" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="C48" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="D48" s="26" t="s">
-        <v>187</v>
-      </c>
       <c r="E48" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F48" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G48" s="10" t="s">
         <v>265</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>266</v>
       </c>
       <c r="I48" s="4">
         <v>120</v>
@@ -4526,10 +4526,10 @@
         <v>25</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M48" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N48" s="18" t="s">
         <v>61</v>
@@ -4547,10 +4547,10 @@
         <v>62</v>
       </c>
       <c r="S48" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="T48" s="19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U48" s="16" t="s">
         <v>60</v>
@@ -4564,22 +4564,22 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
+        <v>187</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="D49" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="C49" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="D49" s="26" t="s">
-        <v>189</v>
-      </c>
       <c r="E49" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F49" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G49" s="10" t="s">
         <v>265</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>266</v>
       </c>
       <c r="I49" s="4">
         <v>120</v>
@@ -4591,10 +4591,10 @@
         <v>25</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M49" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N49" s="18" t="s">
         <v>61</v>
@@ -4612,10 +4612,10 @@
         <v>62</v>
       </c>
       <c r="S49" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="T49" s="19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="U49" s="16" t="s">
         <v>60</v>
@@ -4629,22 +4629,22 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
+        <v>189</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="D50" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="C50" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="D50" s="26" t="s">
-        <v>191</v>
-      </c>
       <c r="E50" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F50" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G50" s="10" t="s">
         <v>265</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>266</v>
       </c>
       <c r="I50" s="4">
         <v>120</v>
@@ -4656,10 +4656,10 @@
         <v>25</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M50" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N50" s="18" t="s">
         <v>61</v>
@@ -4677,10 +4677,10 @@
         <v>62</v>
       </c>
       <c r="S50" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="T50" s="19" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="U50" s="16" t="s">
         <v>60</v>
@@ -4694,22 +4694,22 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
+        <v>191</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="D51" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="C51" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="D51" s="26" t="s">
-        <v>193</v>
-      </c>
       <c r="E51" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F51" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G51" s="10" t="s">
         <v>265</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>266</v>
       </c>
       <c r="I51" s="4">
         <v>120</v>
@@ -4721,10 +4721,10 @@
         <v>25</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M51" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N51" s="18" t="s">
         <v>61</v>
@@ -4742,10 +4742,10 @@
         <v>62</v>
       </c>
       <c r="S51" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="T51" s="19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="U51" s="16" t="s">
         <v>60</v>
@@ -4759,22 +4759,22 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
+        <v>193</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="D52" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="C52" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="D52" s="26" t="s">
-        <v>195</v>
-      </c>
       <c r="E52" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F52" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G52" s="10" t="s">
         <v>265</v>
-      </c>
-      <c r="G52" s="10" t="s">
-        <v>266</v>
       </c>
       <c r="I52" s="4">
         <v>120</v>
@@ -4786,10 +4786,10 @@
         <v>25</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M52" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N52" s="18" t="s">
         <v>61</v>
@@ -4807,10 +4807,10 @@
         <v>62</v>
       </c>
       <c r="S52" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="T52" s="19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="U52" s="16" t="s">
         <v>60</v>
@@ -4824,22 +4824,22 @@
         <v>11</v>
       </c>
       <c r="B53" t="s">
+        <v>195</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="D53" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="C53" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="D53" s="26" t="s">
-        <v>197</v>
-      </c>
       <c r="E53" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F53" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G53" s="10" t="s">
         <v>265</v>
-      </c>
-      <c r="G53" s="10" t="s">
-        <v>266</v>
       </c>
       <c r="I53" s="4">
         <v>120</v>
@@ -4851,10 +4851,10 @@
         <v>25</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M53" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N53" s="18" t="s">
         <v>61</v>
@@ -4872,10 +4872,10 @@
         <v>62</v>
       </c>
       <c r="S53" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="T53" s="19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="U53" s="16" t="s">
         <v>60</v>
@@ -4889,22 +4889,22 @@
         <v>11</v>
       </c>
       <c r="B54" t="s">
+        <v>197</v>
+      </c>
+      <c r="C54" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="C54" s="24" t="s">
+      <c r="D54" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="D54" s="26" t="s">
-        <v>200</v>
-      </c>
       <c r="E54" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I54" s="4">
         <v>120</v>
@@ -4916,10 +4916,10 @@
         <v>25</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M54" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N54" s="18" t="s">
         <v>61</v>
@@ -4937,10 +4937,10 @@
         <v>62</v>
       </c>
       <c r="S54" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="T54" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="U54" s="16" t="s">
         <v>60</v>
@@ -4954,22 +4954,22 @@
         <v>11</v>
       </c>
       <c r="B55" t="s">
+        <v>200</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="D55" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="C55" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="D55" s="26" t="s">
-        <v>202</v>
-      </c>
       <c r="E55" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F55" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G55" s="10" t="s">
         <v>265</v>
-      </c>
-      <c r="G55" s="10" t="s">
-        <v>266</v>
       </c>
       <c r="I55" s="4">
         <v>120</v>
@@ -4981,10 +4981,10 @@
         <v>25</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M55" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N55" s="18" t="s">
         <v>61</v>
@@ -5002,10 +5002,10 @@
         <v>62</v>
       </c>
       <c r="S55" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="T55" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="U55" s="16" t="s">
         <v>60</v>
@@ -5019,22 +5019,22 @@
         <v>11</v>
       </c>
       <c r="B56" t="s">
+        <v>202</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="D56" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="C56" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="D56" s="27" t="s">
-        <v>204</v>
-      </c>
       <c r="E56" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F56" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G56" s="10" t="s">
         <v>265</v>
-      </c>
-      <c r="G56" s="10" t="s">
-        <v>266</v>
       </c>
       <c r="I56" s="4">
         <v>120</v>
@@ -5046,10 +5046,10 @@
         <v>25</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M56" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N56" s="18" t="s">
         <v>61</v>
@@ -5067,10 +5067,10 @@
         <v>62</v>
       </c>
       <c r="S56" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="T56" s="19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="U56" s="16" t="s">
         <v>60</v>
@@ -5084,22 +5084,22 @@
         <v>11</v>
       </c>
       <c r="B57" t="s">
+        <v>204</v>
+      </c>
+      <c r="C57" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="C57" s="25" t="s">
+      <c r="D57" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="D57" s="26" t="s">
-        <v>207</v>
-      </c>
       <c r="E57" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F57" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G57" s="10" t="s">
         <v>265</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>266</v>
       </c>
       <c r="I57" s="4">
         <v>120</v>
@@ -5111,10 +5111,10 @@
         <v>25</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M57" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N57" s="18" t="s">
         <v>61</v>
@@ -5132,10 +5132,10 @@
         <v>62</v>
       </c>
       <c r="S57" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="T57" s="19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U57" s="16" t="s">
         <v>60</v>
@@ -5149,22 +5149,22 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
+        <v>207</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="D58" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="C58" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="D58" s="26" t="s">
-        <v>209</v>
-      </c>
       <c r="E58" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F58" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G58" s="10" t="s">
         <v>265</v>
-      </c>
-      <c r="G58" s="10" t="s">
-        <v>266</v>
       </c>
       <c r="I58" s="4">
         <v>120</v>
@@ -5176,10 +5176,10 @@
         <v>25</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M58" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N58" s="18" t="s">
         <v>61</v>
@@ -5197,10 +5197,10 @@
         <v>62</v>
       </c>
       <c r="S58" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="T58" s="19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="U58" s="16" t="s">
         <v>60</v>
@@ -5214,22 +5214,22 @@
         <v>11</v>
       </c>
       <c r="B59" t="s">
+        <v>209</v>
+      </c>
+      <c r="C59" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="C59" s="25" t="s">
+      <c r="D59" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="D59" s="26" t="s">
-        <v>212</v>
-      </c>
       <c r="E59" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F59" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G59" s="10" t="s">
         <v>265</v>
-      </c>
-      <c r="G59" s="10" t="s">
-        <v>266</v>
       </c>
       <c r="I59" s="4">
         <v>120</v>
@@ -5241,10 +5241,10 @@
         <v>25</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M59" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N59" s="18" t="s">
         <v>61</v>
@@ -5262,10 +5262,10 @@
         <v>62</v>
       </c>
       <c r="S59" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="T59" s="19" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="U59" s="16" t="s">
         <v>60</v>
@@ -5279,22 +5279,22 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
+        <v>212</v>
+      </c>
+      <c r="C60" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="C60" s="25" t="s">
+      <c r="D60" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="D60" s="27" t="s">
-        <v>215</v>
-      </c>
       <c r="E60" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F60" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G60" s="10" t="s">
         <v>265</v>
-      </c>
-      <c r="G60" s="10" t="s">
-        <v>266</v>
       </c>
       <c r="I60" s="4">
         <v>120</v>
@@ -5306,10 +5306,10 @@
         <v>25</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M60" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N60" s="18" t="s">
         <v>61</v>
@@ -5327,10 +5327,10 @@
         <v>62</v>
       </c>
       <c r="S60" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="T60" s="19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="U60" s="16" t="s">
         <v>60</v>
@@ -5344,22 +5344,22 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
+        <v>215</v>
+      </c>
+      <c r="C61" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="C61" s="25" t="s">
+      <c r="D61" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="D61" s="26" t="s">
-        <v>218</v>
-      </c>
       <c r="E61" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F61" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G61" s="10" t="s">
         <v>265</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>266</v>
       </c>
       <c r="I61" s="4">
         <v>120</v>
@@ -5371,10 +5371,10 @@
         <v>25</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M61" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N61" s="18" t="s">
         <v>61</v>
@@ -5392,10 +5392,10 @@
         <v>62</v>
       </c>
       <c r="S61" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="T61" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="U61" s="16" t="s">
         <v>60</v>
@@ -5409,22 +5409,22 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
+        <v>218</v>
+      </c>
+      <c r="C62" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="C62" s="25" t="s">
+      <c r="D62" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="D62" s="26" t="s">
-        <v>221</v>
-      </c>
       <c r="E62" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F62" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G62" s="10" t="s">
         <v>265</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>266</v>
       </c>
       <c r="I62" s="4">
         <v>120</v>
@@ -5436,10 +5436,10 @@
         <v>25</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M62" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N62" s="18" t="s">
         <v>61</v>
@@ -5457,10 +5457,10 @@
         <v>62</v>
       </c>
       <c r="S62" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="T62" s="19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="U62" s="16" t="s">
         <v>60</v>
@@ -5474,22 +5474,22 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
+        <v>221</v>
+      </c>
+      <c r="C63" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="C63" s="25" t="s">
+      <c r="D63" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="D63" s="26" t="s">
-        <v>224</v>
-      </c>
       <c r="E63" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F63" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G63" s="10" t="s">
         <v>265</v>
-      </c>
-      <c r="G63" s="10" t="s">
-        <v>266</v>
       </c>
       <c r="I63" s="4">
         <v>120</v>
@@ -5501,10 +5501,10 @@
         <v>25</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M63" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N63" s="18" t="s">
         <v>61</v>
@@ -5522,10 +5522,10 @@
         <v>62</v>
       </c>
       <c r="S63" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="T63" s="19" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="U63" s="16" t="s">
         <v>60</v>
@@ -5539,22 +5539,22 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
+        <v>224</v>
+      </c>
+      <c r="C64" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="C64" s="25" t="s">
+      <c r="D64" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="D64" s="26" t="s">
-        <v>227</v>
-      </c>
       <c r="E64" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F64" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G64" s="10" t="s">
         <v>265</v>
-      </c>
-      <c r="G64" s="10" t="s">
-        <v>266</v>
       </c>
       <c r="I64" s="4">
         <v>120</v>
@@ -5566,10 +5566,10 @@
         <v>25</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M64" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N64" s="18" t="s">
         <v>61</v>
@@ -5587,10 +5587,10 @@
         <v>62</v>
       </c>
       <c r="S64" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="T64" s="19" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="U64" s="16" t="s">
         <v>60</v>
@@ -5604,22 +5604,22 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
+        <v>227</v>
+      </c>
+      <c r="C65" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="D65" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="C65" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="D65" s="27" t="s">
-        <v>229</v>
-      </c>
       <c r="E65" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F65" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G65" s="10" t="s">
         <v>265</v>
-      </c>
-      <c r="G65" s="10" t="s">
-        <v>266</v>
       </c>
       <c r="I65" s="4">
         <v>120</v>
@@ -5631,10 +5631,10 @@
         <v>25</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M65" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N65" s="18" t="s">
         <v>61</v>
@@ -5652,10 +5652,10 @@
         <v>62</v>
       </c>
       <c r="S65" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="T65" s="19" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="U65" s="16" t="s">
         <v>60</v>
@@ -5669,22 +5669,22 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
+        <v>229</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="D66" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="C66" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="D66" s="26" t="s">
-        <v>231</v>
-      </c>
       <c r="E66" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F66" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G66" s="10" t="s">
         <v>265</v>
-      </c>
-      <c r="G66" s="10" t="s">
-        <v>266</v>
       </c>
       <c r="I66" s="4">
         <v>120</v>
@@ -5696,10 +5696,10 @@
         <v>25</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M66" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N66" s="18" t="s">
         <v>61</v>
@@ -5717,10 +5717,10 @@
         <v>62</v>
       </c>
       <c r="S66" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="T66" s="19" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="U66" s="16" t="s">
         <v>60</v>
@@ -5734,22 +5734,22 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
+        <v>231</v>
+      </c>
+      <c r="C67" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="C67" s="25" t="s">
+      <c r="D67" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="D67" s="26" t="s">
-        <v>234</v>
-      </c>
       <c r="E67" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F67" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G67" s="10" t="s">
         <v>265</v>
-      </c>
-      <c r="G67" s="10" t="s">
-        <v>266</v>
       </c>
       <c r="I67" s="4">
         <v>120</v>
@@ -5761,10 +5761,10 @@
         <v>25</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M67" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N67" s="18" t="s">
         <v>61</v>
@@ -5782,10 +5782,10 @@
         <v>62</v>
       </c>
       <c r="S67" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="T67" s="19" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="U67" s="16" t="s">
         <v>60</v>
@@ -5799,22 +5799,22 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
+        <v>234</v>
+      </c>
+      <c r="C68" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="C68" s="25" t="s">
+      <c r="D68" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="D68" s="26" t="s">
-        <v>237</v>
-      </c>
       <c r="E68" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F68" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="F68" s="7" t="s">
+      <c r="G68" s="10" t="s">
         <v>265</v>
-      </c>
-      <c r="G68" s="10" t="s">
-        <v>266</v>
       </c>
       <c r="I68" s="4">
         <v>120</v>
@@ -5826,10 +5826,10 @@
         <v>25</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M68" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N68" s="18" t="s">
         <v>61</v>
@@ -5847,10 +5847,10 @@
         <v>62</v>
       </c>
       <c r="S68" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="T68" s="19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U68" s="16" t="s">
         <v>60</v>
